--- a/scenarios_update_statistics.xlsx
+++ b/scenarios_update_statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU Chemnitz\Conferences\MNT-Pro Project\CSR 2025\Code and Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3E1A0A-8174-42D7-B5B8-40C638C2A49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D9D52-ADC1-4FEF-96A5-C770C8ECA150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Plane Attacks" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Measurement</t>
   </si>
   <si>
-    <t>Metdadata</t>
-  </si>
-  <si>
     <t>UE</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>OAI</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
@@ -367,21 +367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +384,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,61 +824,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:63" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -933,53 +933,53 @@
       <c r="BK2" s="5"/>
     </row>
     <row r="3" spans="1:63" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:63" s="5" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="21">
+        <v>1</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="I4" s="21">
         <v>0</v>
       </c>
       <c r="J4" s="1">
@@ -988,96 +988,96 @@
       <c r="K4" s="1">
         <v>39820</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="18">
         <v>16661</v>
       </c>
     </row>
     <row r="5" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="1">
         <v>0.28000000000000003</v>
       </c>
       <c r="K5" s="1">
         <v>1436</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="1">
         <v>0.12</v>
       </c>
       <c r="K6" s="1">
         <v>456</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:63" s="5" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
       <c r="J7" s="1">
         <v>9.1</v>
       </c>
       <c r="K7" s="1">
         <v>35800</v>
       </c>
-      <c r="L7" s="16"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:63" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="I8" s="21">
         <v>0</v>
       </c>
       <c r="J8" s="1">
@@ -1086,69 +1086,69 @@
       <c r="K8" s="1">
         <v>28723</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="18">
         <v>8520</v>
       </c>
     </row>
     <row r="9" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+        <v>41</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="1">
         <v>0.27</v>
       </c>
       <c r="K9" s="1">
         <v>1358</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:63" s="5" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="1">
         <v>0.12</v>
       </c>
       <c r="K10" s="1">
         <v>440</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:63" s="5" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="1">
         <v>9</v>
       </c>
       <c r="K11" s="1">
         <v>34966</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
@@ -1331,6 +1331,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="L4:L7"/>
@@ -1347,12 +1353,6 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C121FA53-A30C-4DF1-BFB3-609CCC4D985E}">
   <dimension ref="A1:BK56"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:L42"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,61 +1383,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="20" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:63" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:63" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="L2" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1492,39 +1492,39 @@
       <c r="BK2" s="5"/>
     </row>
     <row r="3" spans="1:63" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:63" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>19</v>
+      <c r="A4" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>70</v>
@@ -1547,20 +1547,20 @@
       <c r="K4" s="1">
         <v>1696867</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="18">
         <v>26551</v>
       </c>
     </row>
     <row r="5" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>70</v>
@@ -1583,18 +1583,18 @@
       <c r="K5" s="9">
         <v>292103</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>70</v>
@@ -1617,18 +1617,18 @@
       <c r="K6" s="9">
         <v>183088</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>70</v>
@@ -1651,18 +1651,18 @@
       <c r="K7" s="9">
         <v>109750</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
         <v>64</v>
@@ -1685,18 +1685,18 @@
       <c r="K8" s="1">
         <v>173073</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>500</v>
@@ -1719,20 +1719,20 @@
       <c r="K9" s="10">
         <v>94050</v>
       </c>
-      <c r="L9" s="16"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:63" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>23</v>
+      <c r="A10" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E10" s="1">
         <v>70</v>
@@ -1755,20 +1755,20 @@
       <c r="K10" s="9">
         <v>30594</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="18">
         <v>4273</v>
       </c>
     </row>
     <row r="11" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>70</v>
@@ -1791,20 +1791,20 @@
       <c r="K11" s="10">
         <v>27769</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:63" s="5" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
+      <c r="A12" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E12" s="1">
         <v>70</v>
@@ -1827,20 +1827,20 @@
       <c r="K12" s="1">
         <v>58393</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="18">
         <v>9302</v>
       </c>
     </row>
     <row r="13" spans="1:63" s="5" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>70</v>
@@ -1863,33 +1863,33 @@
       <c r="K13" s="1">
         <v>58436</v>
       </c>
-      <c r="L13" s="16"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="13" t="s">
-        <v>20</v>
+      <c r="I14" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="1">
         <v>49.3</v>
@@ -1897,88 +1897,88 @@
       <c r="K14" s="1">
         <v>105309</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="18">
         <v>14244</v>
       </c>
     </row>
     <row r="15" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="G15" s="21"/>
       <c r="H15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="I15" s="21"/>
       <c r="J15" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="K15" s="1">
         <v>757</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:63" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="13"/>
+        <v>27</v>
+      </c>
+      <c r="G16" s="21"/>
       <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="I16" s="21"/>
       <c r="J16" s="1">
         <v>0.8</v>
       </c>
       <c r="K16" s="1">
         <v>8445</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="I17" s="21"/>
       <c r="J17" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="K17" s="1">
         <v>18521</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>44</v>
+      <c r="A18" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -2001,20 +2001,20 @@
       <c r="K18" s="1">
         <v>271</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="18">
         <v>4585</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -2037,18 +2037,18 @@
       <c r="K19" s="1">
         <v>317</v>
       </c>
-      <c r="L19" s="15"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" s="5" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -2071,18 +2071,18 @@
       <c r="K20" s="1">
         <v>6299</v>
       </c>
-      <c r="L20" s="15"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -2105,18 +2105,18 @@
       <c r="K21" s="1">
         <v>331</v>
       </c>
-      <c r="L21" s="15"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" s="5" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -2139,18 +2139,18 @@
       <c r="K22" s="1">
         <v>311</v>
       </c>
-      <c r="L22" s="15"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -2173,18 +2173,18 @@
       <c r="K23" s="1">
         <v>1034</v>
       </c>
-      <c r="L23" s="15"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -2207,18 +2207,18 @@
       <c r="K24" s="1">
         <v>562</v>
       </c>
-      <c r="L24" s="15"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -2241,18 +2241,18 @@
       <c r="K25" s="1">
         <v>412</v>
       </c>
-      <c r="L25" s="16"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2275,20 +2275,20 @@
       <c r="K26" s="1">
         <v>532</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="18">
         <v>4561</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -2311,18 +2311,18 @@
       <c r="K27" s="1">
         <v>1072</v>
       </c>
-      <c r="L27" s="15"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="1:12" s="5" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -2345,18 +2345,18 @@
       <c r="K28" s="1">
         <v>840</v>
       </c>
-      <c r="L28" s="15"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -2379,18 +2379,18 @@
       <c r="K29" s="1">
         <v>28587</v>
       </c>
-      <c r="L29" s="15"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" s="5" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -2413,18 +2413,18 @@
       <c r="K30" s="1">
         <v>922</v>
       </c>
-      <c r="L30" s="15"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -2447,18 +2447,18 @@
       <c r="K31" s="1">
         <v>1477</v>
       </c>
-      <c r="L31" s="15"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -2481,18 +2481,18 @@
       <c r="K32" s="1">
         <v>174</v>
       </c>
-      <c r="L32" s="15"/>
+      <c r="L32" s="19"/>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -2515,20 +2515,20 @@
       <c r="K33" s="1">
         <v>1058</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" s="5" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -2543,7 +2543,7 @@
         <v>20000</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="1">
         <v>77</v>
@@ -2556,15 +2556,15 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
@@ -2579,7 +2579,7 @@
         <v>20000</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" s="1">
         <v>42</v>
@@ -2592,15 +2592,15 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>20000</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1">
         <v>1.8</v>
@@ -2628,15 +2628,15 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>20000</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" s="1">
         <v>177</v>
@@ -2664,17 +2664,17 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>50</v>
+      <c r="A38" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="1">
         <v>3.1E-2</v>
@@ -2702,15 +2702,15 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" s="1">
         <v>3.9E-2</v>
@@ -2738,15 +2738,15 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" s="1">
         <v>4.8000000000000001E-2</v>
@@ -2774,15 +2774,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1">
         <v>0.81200000000000006</v>
@@ -2990,11 +2990,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="L26:L33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="L4:L9"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="A10:A11"/>
@@ -3007,12 +3008,11 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="L26:L33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
